--- a/biology/Botanique/Barcella_odora/Barcella_odora.xlsx
+++ b/biology/Botanique/Barcella_odora/Barcella_odora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Barcella odora est une espèce de palmiers. C'est l'unique représentant du genre Barcella (genre monotypique). C'est une espèce confinée à une petite zone des rives du rio Negro et de ses affluents au Brésil.  
 </t>
@@ -511,14 +523,16 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Famille : Arecaceae
 Sous-famille : Arecoideae
 Tribu : Cocoseae
 Sous-tribu : Elaeidinae
-Ce genre monospécifique partage sa sous-tribu avec un autre genre "Elaeis" qui de par sa particularité à contenir deux espèces, l'une en Amérique tropicale et la seconde en Afrique tropicale, situe l'évolution tribale a une particularité géographique en limite de la séparation des continents américain et africain, comme un lien entre le Nouveau Monde et le vieux continent[3].
-Le plus grand potentiel de ce palmier Barcella odora  réside dans une éventuelle hybridation avec les espèces africaines ou américaines d'Elaeis pour introduire de nouvelles caractéristiques (Hahn, 2002b; Asmussen et al., 2006 ; Baker et al., 2009, 2011 ; Comer et al., 2015, 2016)[4], [5] .
+Ce genre monospécifique partage sa sous-tribu avec un autre genre "Elaeis" qui de par sa particularité à contenir deux espèces, l'une en Amérique tropicale et la seconde en Afrique tropicale, situe l'évolution tribale a une particularité géographique en limite de la séparation des continents américain et africain, comme un lien entre le Nouveau Monde et le vieux continent.
+Le plus grand potentiel de ce palmier Barcella odora  réside dans une éventuelle hybridation avec les espèces africaines ou américaines d'Elaeis pour introduire de nouvelles caractéristiques (Hahn, 2002b; Asmussen et al., 2006 ; Baker et al., 2009, 2011 ; Comer et al., 2015, 2016),  .
 </t>
         </is>
       </c>
@@ -547,15 +561,17 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (29 décembre 2013)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (29 décembre 2013) :
 Barcella odora (Trail) Drude (1881)
-Selon NCBI  (29 décembre 2013)[7] :
+Selon NCBI  (29 décembre 2013) :
 Barcella odora
-Selon The Plant List            (29 décembre 2013)[8] :
+Selon The Plant List            (29 décembre 2013) :
 Barcella odora (Trail) Drude
-Selon Tropicos                                           (29 décembre 2013)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (29 décembre 2013) (Attention liste brute contenant possiblement des synonymes) :
 Barcella odora (Trail) Drude
 </t>
         </is>
